--- a/result/diverse/diverse2/LengthAngleSafety.xlsx
+++ b/result/diverse/diverse2/LengthAngleSafety.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
         <v>0.6289229973456536</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02135497858616537</v>
+        <v>0.01749518539312528</v>
       </c>
       <c r="E4" t="n">
         <v>0.6990136040915751</v>
@@ -525,10 +525,29 @@
         <v>0.2901989120591437</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004343518714591337</v>
+        <v>0.006017676599826928</v>
       </c>
       <c r="E5" t="n">
         <v>0.4658826784316946</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DWA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>65</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6445621764871753</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0149623279218316</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6308837203990878</v>
       </c>
     </row>
   </sheetData>

--- a/result/diverse/diverse2/LengthAngleSafety.xlsx
+++ b/result/diverse/diverse2/LengthAngleSafety.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ConventionalQL</t>
+          <t>ClassicalQL</t>
         </is>
       </c>
       <c r="B2" t="n">
